--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.393370215330148</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H2">
-        <v>0.393370215330148</v>
+        <v>1.85731</v>
       </c>
       <c r="I2">
-        <v>0.005575393486675192</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J2">
-        <v>0.005575393486675192</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.7757496406453</v>
+        <v>16.67754233333333</v>
       </c>
       <c r="N2">
-        <v>14.7757496406453</v>
+        <v>50.03262699999999</v>
       </c>
       <c r="O2">
-        <v>0.9528263967968729</v>
+        <v>0.9535192900707901</v>
       </c>
       <c r="P2">
-        <v>0.9528263967968729</v>
+        <v>0.9578676752791928</v>
       </c>
       <c r="Q2">
-        <v>5.812339817804999</v>
+        <v>10.32512205037444</v>
       </c>
       <c r="R2">
-        <v>5.812339817804999</v>
+        <v>92.92609845336999</v>
       </c>
       <c r="S2">
-        <v>0.005312382086633477</v>
+        <v>0.007561062616728516</v>
       </c>
       <c r="T2">
-        <v>0.005312382086633477</v>
+        <v>0.0076270119100548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.393370215330148</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H3">
-        <v>0.393370215330148</v>
+        <v>1.85731</v>
       </c>
       <c r="I3">
-        <v>0.005575393486675192</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J3">
-        <v>0.005575393486675192</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.543398678787341</v>
+        <v>0.574769</v>
       </c>
       <c r="N3">
-        <v>0.543398678787341</v>
+        <v>1.724307</v>
       </c>
       <c r="O3">
-        <v>0.03504151178285065</v>
+        <v>0.0328617561197435</v>
       </c>
       <c r="P3">
-        <v>0.03504151178285065</v>
+        <v>0.03301161735036698</v>
       </c>
       <c r="Q3">
-        <v>0.2137568552846943</v>
+        <v>0.3558414037966667</v>
       </c>
       <c r="R3">
-        <v>0.2137568552846943</v>
+        <v>3.20257263417</v>
       </c>
       <c r="S3">
-        <v>0.0001953702165573575</v>
+        <v>0.0002605818238859074</v>
       </c>
       <c r="T3">
-        <v>0.0001953702165573575</v>
+        <v>0.0002628546773206785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.393370215330148</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H4">
-        <v>0.393370215330148</v>
+        <v>1.85731</v>
       </c>
       <c r="I4">
-        <v>0.005575393486675192</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J4">
-        <v>0.005575393486675192</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.188135788477365</v>
+        <v>0.2382025</v>
       </c>
       <c r="N4">
-        <v>0.188135788477365</v>
+        <v>0.476405</v>
       </c>
       <c r="O4">
-        <v>0.0121320914202765</v>
+        <v>0.01361895380946642</v>
       </c>
       <c r="P4">
-        <v>0.0121320914202765</v>
+        <v>0.009120707370440172</v>
       </c>
       <c r="Q4">
-        <v>0.07400701562464825</v>
+        <v>0.1474719617583334</v>
       </c>
       <c r="R4">
-        <v>0.07400701562464825</v>
+        <v>0.8848317705500001</v>
       </c>
       <c r="S4">
-        <v>6.764118348435755E-05</v>
+        <v>0.0001079933710833098</v>
       </c>
       <c r="T4">
-        <v>6.764118348435755E-05</v>
+        <v>7.262354241382643E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.7065116272673</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H5">
-        <v>69.7065116272673</v>
+        <v>229.467361</v>
       </c>
       <c r="I5">
-        <v>0.9879782854920413</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J5">
-        <v>0.9879782854920413</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.7757496406453</v>
+        <v>16.67754233333333</v>
       </c>
       <c r="N5">
-        <v>14.7757496406453</v>
+        <v>50.03262699999999</v>
       </c>
       <c r="O5">
-        <v>0.9528263967968729</v>
+        <v>0.9535192900707901</v>
       </c>
       <c r="P5">
-        <v>0.9528263967968729</v>
+        <v>0.9578676752791928</v>
       </c>
       <c r="Q5">
-        <v>1029.965964127232</v>
+        <v>1275.650542398594</v>
       </c>
       <c r="R5">
-        <v>1029.965964127232</v>
+        <v>11480.85488158734</v>
       </c>
       <c r="S5">
-        <v>0.9413717898789339</v>
+        <v>0.9341558948244757</v>
       </c>
       <c r="T5">
-        <v>0.9413717898789339</v>
+        <v>0.9423038132114964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.7065116272673</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H6">
-        <v>69.7065116272673</v>
+        <v>229.467361</v>
       </c>
       <c r="I6">
-        <v>0.9879782854920413</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J6">
-        <v>0.9879782854920413</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.543398678787341</v>
+        <v>0.574769</v>
       </c>
       <c r="N6">
-        <v>0.543398678787341</v>
+        <v>1.724307</v>
       </c>
       <c r="O6">
-        <v>0.03504151178285065</v>
+        <v>0.0328617561197435</v>
       </c>
       <c r="P6">
-        <v>0.03504151178285065</v>
+        <v>0.03301161735036698</v>
       </c>
       <c r="Q6">
-        <v>37.87842632113148</v>
+        <v>43.96357520486966</v>
       </c>
       <c r="R6">
-        <v>37.87842632113148</v>
+        <v>395.672176843827</v>
       </c>
       <c r="S6">
-        <v>0.03462025273226994</v>
+        <v>0.03219442282207383</v>
       </c>
       <c r="T6">
-        <v>0.03462025273226994</v>
+        <v>0.03247522983846672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.7065116272673</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H7">
-        <v>69.7065116272673</v>
+        <v>229.467361</v>
       </c>
       <c r="I7">
-        <v>0.9879782854920413</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J7">
-        <v>0.9879782854920413</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.188135788477365</v>
+        <v>0.2382025</v>
       </c>
       <c r="N7">
-        <v>0.188135788477365</v>
+        <v>0.476405</v>
       </c>
       <c r="O7">
-        <v>0.0121320914202765</v>
+        <v>0.01361895380946642</v>
       </c>
       <c r="P7">
-        <v>0.0121320914202765</v>
+        <v>0.009120707370440172</v>
       </c>
       <c r="Q7">
-        <v>13.11428952700255</v>
+        <v>18.21989968620083</v>
       </c>
       <c r="R7">
-        <v>13.11428952700255</v>
+        <v>109.319398117205</v>
       </c>
       <c r="S7">
-        <v>0.01198624288083748</v>
+        <v>0.01334238972922173</v>
       </c>
       <c r="T7">
-        <v>0.01198624288083748</v>
+        <v>0.008972510040958333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.454818246333632</v>
+        <v>0.9663805</v>
       </c>
       <c r="H8">
-        <v>0.454818246333632</v>
+        <v>1.932761</v>
       </c>
       <c r="I8">
-        <v>0.006446321021283539</v>
+        <v>0.01237765481253107</v>
       </c>
       <c r="J8">
-        <v>0.006446321021283539</v>
+        <v>0.008285956779289245</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.7757496406453</v>
+        <v>16.67754233333333</v>
       </c>
       <c r="N8">
-        <v>14.7757496406453</v>
+        <v>50.03262699999999</v>
       </c>
       <c r="O8">
-        <v>0.9528263967968729</v>
+        <v>0.9535192900707901</v>
       </c>
       <c r="P8">
-        <v>0.9528263967968729</v>
+        <v>0.9578676752791928</v>
       </c>
       <c r="Q8">
-        <v>6.720280539823088</v>
+        <v>16.11685169885783</v>
       </c>
       <c r="R8">
-        <v>6.720280539823088</v>
+        <v>96.70111019314697</v>
       </c>
       <c r="S8">
-        <v>0.006142224831305532</v>
+        <v>0.01180233262958592</v>
       </c>
       <c r="T8">
-        <v>0.006142224831305532</v>
+        <v>0.007936850157641657</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.454818246333632</v>
+        <v>0.9663805</v>
       </c>
       <c r="H9">
-        <v>0.454818246333632</v>
+        <v>1.932761</v>
       </c>
       <c r="I9">
-        <v>0.006446321021283539</v>
+        <v>0.01237765481253107</v>
       </c>
       <c r="J9">
-        <v>0.006446321021283539</v>
+        <v>0.008285956779289245</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.543398678787341</v>
+        <v>0.574769</v>
       </c>
       <c r="N9">
-        <v>0.543398678787341</v>
+        <v>1.724307</v>
       </c>
       <c r="O9">
-        <v>0.03504151178285065</v>
+        <v>0.0328617561197435</v>
       </c>
       <c r="P9">
-        <v>0.03504151178285065</v>
+        <v>0.03301161735036698</v>
       </c>
       <c r="Q9">
-        <v>0.247147634146071</v>
+        <v>0.5554455536045</v>
       </c>
       <c r="R9">
-        <v>0.247147634146071</v>
+        <v>3.332673321627</v>
       </c>
       <c r="S9">
-        <v>0.000225888834023345</v>
+        <v>0.0004067514737837655</v>
       </c>
       <c r="T9">
-        <v>0.000225888834023345</v>
+        <v>0.0002735328345795757</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.454818246333632</v>
+        <v>0.9663805</v>
       </c>
       <c r="H10">
-        <v>0.454818246333632</v>
+        <v>1.932761</v>
       </c>
       <c r="I10">
-        <v>0.006446321021283539</v>
+        <v>0.01237765481253107</v>
       </c>
       <c r="J10">
-        <v>0.006446321021283539</v>
+        <v>0.008285956779289245</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.188135788477365</v>
+        <v>0.2382025</v>
       </c>
       <c r="N10">
-        <v>0.188135788477365</v>
+        <v>0.476405</v>
       </c>
       <c r="O10">
-        <v>0.0121320914202765</v>
+        <v>0.01361895380946642</v>
       </c>
       <c r="P10">
-        <v>0.0121320914202765</v>
+        <v>0.009120707370440172</v>
       </c>
       <c r="Q10">
-        <v>0.08556758938787028</v>
+        <v>0.23019425105125</v>
       </c>
       <c r="R10">
-        <v>0.08556758938787028</v>
+        <v>0.920777004205</v>
       </c>
       <c r="S10">
-        <v>7.820735595466203E-05</v>
+        <v>0.0001685707091613803</v>
       </c>
       <c r="T10">
-        <v>7.820735595466203E-05</v>
+        <v>7.557378706801213E-05</v>
       </c>
     </row>
   </sheetData>
